--- a/IPL/Kolkata Knight Riders/Varun Chakravarthy .xlsx
+++ b/IPL/Kolkata Knight Riders/Varun Chakravarthy .xlsx
@@ -428,10 +428,10 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C3" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C4" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
